--- a/biology/Botanique/Diospyros_tessellaria/Diospyros_tessellaria.xlsx
+++ b/biology/Botanique/Diospyros_tessellaria/Diospyros_tessellaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bois d'ébène, Diospyros tessellaria, est une espèce de plante à fleurs du genre Diospyros (Ébène) et de la famille des Ebenaceae. C'est un arbre qui peut atteindre vingt mètres de hauteur. Il est endémique de l'île Maurice et était exploité pour son bois noir.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc unique de cet arbre est droit et mince avec une écorce gris foncé presque noire. Les feuilles ont une pétiole épais qui peut mesurer jusqu'à 9 mm de longueur. La feuille est oblongue ou ovale de 5 à 12 cm sur 3 à 6 cm. Le côté supérieur de la feuille est d'un vert brillant, tandis que le côté inférieur est plus pâle. Ses nervures sont distinctes.
 Les fleurs mâles portent de 5 à 15 fleurs avec un calice de 5 à 6 mm de longueur. Sa corolle fait 8 mm de diamètre avec 4 ou 5 lobes de 5 mm par 3,5 mm. Le nombre d'étamines varie de dix à douze.
